--- a/PROGRAMA LINEAL FUERZA  #1 - APP.xlsx
+++ b/PROGRAMA LINEAL FUERZA  #1 - APP.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcascante/develop/gym-app/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655DCA15-6C8D-6242-A7EA-45B43F32AEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="INDICACIONES" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TABLAS" sheetId="2" r:id="rId5"/>
+    <sheet name="INDICACIONES" sheetId="1" r:id="rId1"/>
+    <sheet name="TABLAS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -206,32 +215,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -253,7 +265,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -267,27 +285,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -297,92 +322,94 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>-200025</xdr:rowOff>
+      <xdr:colOff>816605</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81120</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6515100" cy="7677150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3725002" y="1632265"/>
+          <a:ext cx="6515100" cy="7677150"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -394,12 +421,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -589,961 +612,975 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C2:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="14.63"/>
-    <col customWidth="1" min="5" max="5" width="14.25"/>
-    <col customWidth="1" min="16" max="16" width="19.38"/>
-    <col customWidth="1" min="18" max="18" width="21.0"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
       <c r="V3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="C4" s="4" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4" t="s">
+      <c r="U4" s="2"/>
+      <c r="V4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="s">
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.05</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.6</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="6" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="6" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W5" s="6" t="s">
+      <c r="S5" s="5">
+        <v>5</v>
+      </c>
+      <c r="T5" s="5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="s">
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.04</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0.65</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="6" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="6" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="6" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="W6" s="6" t="s">
+      <c r="U6" s="2"/>
+      <c r="V6" s="5">
+        <v>2</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="s">
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.03</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0.7</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="6" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="6" t="s">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="W7" s="6" t="s">
+      <c r="U7" s="2"/>
+      <c r="V7" s="5">
+        <v>3</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="s">
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.02</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.75</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="6" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="6" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="W8" s="6" t="s">
+      <c r="S8" s="5">
+        <v>6</v>
+      </c>
+      <c r="T8" s="5">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="5">
+        <v>4</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="6" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="6" t="s">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>0.04</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>0.05</v>
       </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="W9" s="15" t="s">
+      <c r="U9" s="2"/>
+      <c r="V9" s="9">
+        <v>5</v>
+      </c>
+      <c r="W9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="6" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="6" t="s">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="W10" s="6" t="s">
+      <c r="U10" s="2"/>
+      <c r="V10" s="5">
+        <v>6</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X10" s="6">
-        <v>510.0</v>
-      </c>
-      <c r="Y10" s="9" t="s">
+      <c r="X10" s="5">
+        <v>510</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="6" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="6" t="s">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>0.65</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>0.6</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="W11" s="6" t="s">
+      <c r="U11" s="2"/>
+      <c r="V11" s="5">
+        <v>7</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="X11" s="6">
-        <v>535.0</v>
-      </c>
-      <c r="Y11" s="9" t="s">
+      <c r="X11" s="5">
+        <v>535</v>
+      </c>
+      <c r="Y11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="6" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="6" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="6">
-        <v>190.0</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="W12" s="6" t="s">
+      <c r="T12" s="5">
+        <v>190</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="5">
+        <v>8</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="6" t="s">
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="6" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="6">
-        <v>250.0</v>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="16" t="s">
+      <c r="T13" s="5">
+        <v>250</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="17" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
       <c r="V15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="4" t="s">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="W16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W17" s="6" t="s">
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="X17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="W18" s="6" t="s">
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="5">
+        <v>2</v>
+      </c>
+      <c r="W18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="X18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="W19" s="6" t="s">
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="5">
+        <v>3</v>
+      </c>
+      <c r="W19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="X19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="W20" s="6" t="s">
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="5">
+        <v>4</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="X20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y20" s="9" t="s">
+      <c r="Y20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="W21" s="6" t="s">
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="5">
+        <v>5</v>
+      </c>
+      <c r="W21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="X21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="W22" s="6" t="s">
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="5">
+        <v>6</v>
+      </c>
+      <c r="W22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X22" s="6" t="s">
+      <c r="X22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="9" t="s">
+      <c r="Y22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="W23" s="6" t="s">
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="5">
+        <v>7</v>
+      </c>
+      <c r="W23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="X23" s="6" t="s">
+      <c r="X23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="9" t="s">
+      <c r="Y23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="W24" s="6" t="s">
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="5">
+        <v>8</v>
+      </c>
+      <c r="W24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="X24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="9" t="s">
+      <c r="Y24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1551,6 +1588,7 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K14:N14"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>